--- a/target/classes/testdata/OrangeHRMTestData.xlsx
+++ b/target/classes/testdata/OrangeHRMTestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DD1A68-07C4-4A83-AE9D-9292EF290E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0660E9E-AE78-4090-A860-E2D2F7D65BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10716" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee" sheetId="3" r:id="rId2"/>
+    <sheet name="vacancy" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>firstName</t>
   </si>
@@ -115,6 +117,75 @@
   </si>
   <si>
     <t>2030104050</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>suraj</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>prakash</t>
+  </si>
+  <si>
+    <t>vikram</t>
+  </si>
+  <si>
+    <t>shardul</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>vacancy</t>
+  </si>
+  <si>
+    <t>Hiring Manager</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>ashok</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>biden</t>
+  </si>
+  <si>
+    <t>shyam</t>
+  </si>
+  <si>
+    <t>sita</t>
+  </si>
+  <si>
+    <t>ghanshyam</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>BTest</t>
   </si>
 </sst>
 </file>
@@ -454,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -581,4 +652,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218D4A39-AE7D-45C3-BAD3-2B2BFAD07EE0}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384791F6-813E-462C-A256-8BF61B6881C4}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>